--- a/てきword.xlsx
+++ b/てきword.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C38B33-6974-4AEF-829D-89BC8F974B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5304155C-F9E6-43D7-9B29-87EF2C0DDA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="0" windowWidth="10032" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="131">
   <si>
     <t>合理的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -551,6 +551,14 @@
   </si>
   <si>
     <t>（突然地）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょくせつに</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -887,7 +895,7 @@
   <dimension ref="A2:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1287,6 +1295,12 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="D29" s="1" t="s">
         <v>76</v>
       </c>

--- a/てきword.xlsx
+++ b/てきword.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5304155C-F9E6-43D7-9B29-87EF2C0DDA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B430F223-776A-42E4-8943-86B151FC96D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="133">
   <si>
     <t>合理的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -559,6 +559,14 @@
   </si>
   <si>
     <t>ちょくせつに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重大な</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうだいな</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -894,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -940,6 +948,12 @@
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">

--- a/てきword.xlsx
+++ b/てきword.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B430F223-776A-42E4-8943-86B151FC96D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7E3260-31B4-40A1-B0E9-753D23BA30B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="137">
   <si>
     <t>合理的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -567,6 +567,22 @@
   </si>
   <si>
     <t>じゅうだいな</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぎゃくに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>積極的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せっきょくてき</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -900,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -915,6 +931,14 @@
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>20</v>
@@ -1392,6 +1416,14 @@
       </c>
       <c r="E38" s="1" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/てきword.xlsx
+++ b/てきword.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7E3260-31B4-40A1-B0E9-753D23BA30B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A85D34-A46A-4F5E-B2B3-DF2AAEFCA7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="139">
   <si>
     <t>合理的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -583,6 +583,14 @@
   </si>
   <si>
     <t>せっきょくてき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派手に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はでに</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -918,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1347,6 +1355,12 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="D30" s="1" t="s">
         <v>86</v>
       </c>

--- a/てきword.xlsx
+++ b/てきword.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A85D34-A46A-4F5E-B2B3-DF2AAEFCA7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B1EACE-EF33-4651-81AE-1D52504F6BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="141">
   <si>
     <t>合理的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -591,6 +591,14 @@
   </si>
   <si>
     <t>はでに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断続的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だんぞくてき</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -924,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1440,6 +1448,14 @@
         <v>136</v>
       </c>
     </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
